--- a/InterviewTest/output/230478/230478_failed.xlsx
+++ b/InterviewTest/output/230478/230478_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86377A77-7FF9-428A-AEC6-B49C69395BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBE884-5072-49B9-BC54-0C33FFC6CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230478/230478_failed.xlsx
+++ b/InterviewTest/output/230478/230478_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230478\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCBE884-5072-49B9-BC54-0C33FFC6CDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9544A-F8E4-4AF3-804C-D293055C98A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="33480" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230478/230478_failed.xlsx
+++ b/InterviewTest/output/230478/230478_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230478\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230478\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E9544A-F8E4-4AF3-804C-D293055C98A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F05A27-137C-4272-A2C8-22AC301038BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33480" yWindow="2925" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
